--- a/biology/Botanique/Ceramiaceae/Ceramiaceae.xlsx
+++ b/biology/Botanique/Ceramiaceae/Ceramiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ceramiaceae sont une famille d’algues rouges de l’ordre des Ceramiales. 
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Ceramium, dérivé du grec κέρατος / kératos, « en forme de corne »[1], illustrant la morphologie des apex fourchus ou « extrémités enroulées en crosse ».
-Une autre hypothèse fait remonter l'étymologie au grec κέραμον / kéramon, « vaisselle d'argile » ou de κεραμικός / keramikós, céramique, terme impropre car s'appliquant à l'origine à la description des structures reproductives de Gracilaria qui ressemblent à des cruches en céramique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Ceramium, dérivé du grec κέρατος / kératos, « en forme de corne », illustrant la morphologie des apex fourchus ou « extrémités enroulées en crosse ».
+Une autre hypothèse fait remonter l'étymologie au grec κέραμον / kéramon, « vaisselle d'argile » ou de κεραμικός / keramikós, céramique, terme impropre car s'appliquant à l'origine à la description des structures reproductives de Gracilaria qui ressemblent à des cruches en céramique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-familles, tribus, et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (26 juillet 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (26 juillet 2013) :
 tribu des Skeletonelleae A.J.K.Millar &amp; O.De Clerck
 sous-famille des Ceramioideae De Toni
 tribu des Antithamnieae Hommersand
@@ -564,7 +580,7 @@
 tribu des Warrenieae F.Schmitz
 sous-famille incertae sedis
 tribu incertae sedis
-Selon ITIS      (26 juillet 2013)[4] :
+Selon ITIS      (26 juillet 2013) :
 genre Aglaothamnion
 genre Anotrichium
 genre Antithamnion
@@ -601,7 +617,7 @@
 genre Tiffaniella
 genre Trailliella E. A. L. Batters
 genre Wrangelia C. A. Agardh
-Selon NCBI  (26 juillet 2013)[5] :
+Selon NCBI  (26 juillet 2013) :
 genre Acrothamnion
 genre Aglaothamnion
 genre Anotrichium
@@ -663,7 +679,7 @@
 genre Tetrathamnion
 genre Warrenia
 genre Wrangelia
-Selon World Register of Marine Species                               (26 juillet 2013)[6] :
+Selon World Register of Marine Species                               (26 juillet 2013) :
 genre Ardreanema R.E.Norris &amp; I.A.Abbott, 1992
 genre Boreothamnion M.J.Wynne, 1980
 genre Boryna Grateloup ex Bory de Saint-Vincent, 1822
@@ -704,7 +720,7 @@
 genre Poecilothamnion Nägeli, 1847
 genre Gaillona Bonnemaison, 1828
 genre Grateloupia Bonnemaison, 1822
-Selon World Register of Marine Species                               (26 juillet 2013)[6] :
+Selon World Register of Marine Species                               (26 juillet 2013) :
 genre Acrothamnion J.Agardh, 1892
 genre Acrothamniopsis Athanasiadis &amp; Kraft, 1996
 genre Amoenothamnion Wollaston, 1968
